--- a/recursos/listas/13_LISTA PAVIR.xlsx
+++ b/recursos/listas/13_LISTA PAVIR.xlsx
@@ -11,14 +11,14 @@
     <sheet name="CalculoPrecios" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$G$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$G$40</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="49">
   <si>
     <t>PUERTAS DE CHAPA PAVIR</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>Con postigo $1.255.000      Ciega $1.270.000</t>
+  </si>
+  <si>
+    <t>LINEA LUJAN (Con lateral)</t>
   </si>
 </sst>
 </file>
@@ -566,7 +569,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>781050</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>575382</xdr:rowOff>
+      <xdr:rowOff>603957</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -601,15 +604,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
+      <xdr:colOff>76199</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
+      <xdr:rowOff>381000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>785688</xdr:colOff>
+      <xdr:colOff>823788</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>581025</xdr:rowOff>
+      <xdr:rowOff>723900</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -631,7 +634,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="38099" y="3524250"/>
+          <a:off x="76199" y="3762375"/>
           <a:ext cx="747589" cy="1457325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -645,13 +648,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>51772</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>627362</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>704850</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -689,13 +692,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>285750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>845351</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>333375</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -733,13 +736,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>370179</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -776,13 +779,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>482895</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -819,15 +822,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>363308</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>21772</xdr:rowOff>
+      <xdr:colOff>391883</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>766625</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>219076</xdr:rowOff>
+      <xdr:colOff>788597</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -849,8 +852,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="363308" y="9394372"/>
-          <a:ext cx="403317" cy="997404"/>
+          <a:off x="391883" y="9820275"/>
+          <a:ext cx="396714" cy="981075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -863,14 +866,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>288877</xdr:rowOff>
+      <xdr:colOff>381466</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -892,8 +895,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="38100" y="12582526"/>
-          <a:ext cx="438150" cy="1203276"/>
+          <a:off x="38100" y="12839701"/>
+          <a:ext cx="343366" cy="942974"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -905,15 +908,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>57356</xdr:rowOff>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>57357</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>857250</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>228599</xdr:rowOff>
+      <xdr:colOff>847867</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -935,8 +938,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="342900" y="12601781"/>
-          <a:ext cx="514350" cy="1123743"/>
+          <a:off x="438150" y="12858957"/>
+          <a:ext cx="409717" cy="895143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -949,13 +952,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>38761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -992,13 +995,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>224741</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>809625</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>301626</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1322,10 +1325,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1383,7 +1386,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="41"/>
       <c r="B5" s="30" t="s">
         <v>9</v>
@@ -1534,15 +1537,14 @@
         <v>11</v>
       </c>
       <c r="C12" s="33">
-        <f>MROUND(CalculoPrecios!B9 * CalculoPrecios!$I$1 * CalculoPrecios!$J$1 * CalculoPrecios!$K$1, 1000)</f>
-        <v>381000</v>
+        <f>MROUND(CalculoPrecios!B9 * CalculoPrecios!$I$1 * CalculoPrecios!$J$1 * CalculoPrecios!$K$1 + 9000, 1000)</f>
+        <v>390000</v>
       </c>
       <c r="D12" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="33">
-        <f>MROUND(CalculoPrecios!D9 * CalculoPrecios!$I$1 * CalculoPrecios!$J$1 * CalculoPrecios!$K$1, 1000)</f>
-        <v>569000</v>
+      <c r="E12" s="33" t="s">
+        <v>38</v>
       </c>
       <c r="F12" s="33" t="s">
         <v>38</v>
@@ -1576,17 +1578,17 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="42"/>
+      <c r="A14" s="41"/>
       <c r="B14" s="32" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="33">
-        <f>MROUND(CalculoPrecios!B11 * CalculoPrecios!$I$1 * CalculoPrecios!$J$1 * CalculoPrecios!$K$1, 1000)</f>
-        <v>783000</v>
+        <f>MROUND(CalculoPrecios!B10 * CalculoPrecios!$I$1 * CalculoPrecios!$J$1 * CalculoPrecios!$K$1, 1000)</f>
+        <v>699000</v>
       </c>
       <c r="D14" s="33">
-        <f>MROUND(CalculoPrecios!C11 * CalculoPrecios!$I$1 * CalculoPrecios!$J$1 * CalculoPrecios!$K$1, 1000)</f>
-        <v>861000</v>
+        <f>MROUND(CalculoPrecios!C10 * CalculoPrecios!$I$1 * CalculoPrecios!$J$1 * CalculoPrecios!$K$1, 1000)</f>
+        <v>777000</v>
       </c>
       <c r="E14" s="33" t="s">
         <v>38</v>
@@ -1598,474 +1600,496 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="40"/>
-      <c r="B15" s="28" t="s">
+    <row r="15" spans="1:7" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="42"/>
+      <c r="B15" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="33">
+        <f>MROUND(CalculoPrecios!D9 * CalculoPrecios!$I$1 * CalculoPrecios!$J$1 * CalculoPrecios!$K$1, 1000)</f>
+        <v>569000</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="40"/>
+      <c r="B16" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-    </row>
-    <row r="16" spans="1:7" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="41"/>
-      <c r="B16" s="34" t="s">
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="41"/>
+      <c r="B17" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="33">
+      <c r="C17" s="33">
         <f>MROUND(CalculoPrecios!B13 * CalculoPrecios!$I$1 * CalculoPrecios!$J$1 * CalculoPrecios!$K$1, 1000)</f>
         <v>379000</v>
       </c>
-      <c r="D16" s="33">
+      <c r="D17" s="33">
         <f>MROUND(CalculoPrecios!C13 * CalculoPrecios!$I$1 * CalculoPrecios!$J$1 * CalculoPrecios!$K$1, 1000)</f>
         <v>421000</v>
       </c>
-      <c r="E16" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="33">
+      <c r="E17" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="33">
         <f>MROUND(CalculoPrecios!E13 * CalculoPrecios!$I$1 * CalculoPrecios!$J$1 * CalculoPrecios!$K$1, 1000)</f>
         <v>872000</v>
       </c>
-      <c r="G16" s="33" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="41"/>
-      <c r="B17" s="30" t="s">
+      <c r="G17" s="33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="41"/>
+      <c r="B18" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="33">
+      <c r="C18" s="33">
         <f>MROUND(CalculoPrecios!B14 * CalculoPrecios!$I$1 * CalculoPrecios!$J$1 * CalculoPrecios!$K$1, 1000)</f>
         <v>406000</v>
       </c>
-      <c r="D17" s="33">
+      <c r="D18" s="33">
         <f>MROUND(CalculoPrecios!C14 * CalculoPrecios!$I$1 * CalculoPrecios!$J$1 * CalculoPrecios!$K$1, 1000)</f>
         <v>448000</v>
       </c>
-      <c r="E17" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="33">
+      <c r="E18" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="33">
         <f>MROUND(CalculoPrecios!E14 * CalculoPrecios!$I$1 * CalculoPrecios!$J$1 * CalculoPrecios!$K$1, 1000)</f>
         <v>875000</v>
       </c>
-      <c r="G17" s="33">
+      <c r="G18" s="33">
         <f>MROUND(CalculoPrecios!F14 * CalculoPrecios!$I$1 * CalculoPrecios!$J$1 * CalculoPrecios!$K$1, 1000)</f>
         <v>1216000</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="67.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="41"/>
-      <c r="B18" s="31" t="s">
+    <row r="19" spans="1:7" ht="67.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="41"/>
+      <c r="B19" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="33">
+      <c r="C19" s="33">
         <f>MROUND(CalculoPrecios!B15 * CalculoPrecios!$I$1 * CalculoPrecios!$J$1 * CalculoPrecios!$K$1, 1000)</f>
         <v>649000</v>
       </c>
-      <c r="D18" s="33">
+      <c r="D19" s="33">
         <f>MROUND(CalculoPrecios!C15 * CalculoPrecios!$I$1 * CalculoPrecios!$J$1 * CalculoPrecios!$K$1, 1000)</f>
         <v>721000</v>
       </c>
-      <c r="E18" s="39" t="s">
+      <c r="E19" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="33">
+      <c r="F19" s="33">
         <f>MROUND(CalculoPrecios!E15 * CalculoPrecios!$I$1 * CalculoPrecios!$J$1 * CalculoPrecios!$K$1, 1000)</f>
         <v>1345000</v>
       </c>
-      <c r="G18" s="33" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="41"/>
-      <c r="B19" s="35" t="s">
+      <c r="G19" s="33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="41"/>
+      <c r="B20" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="33">
+      <c r="C20" s="33">
         <f>MROUND(CalculoPrecios!B16 * CalculoPrecios!$I$1 * CalculoPrecios!$J$1 * CalculoPrecios!$K$1, 1000)</f>
         <v>823000</v>
       </c>
-      <c r="D19" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="33" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="42"/>
-      <c r="B20" s="32" t="s">
+      <c r="D20" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="42"/>
+      <c r="B21" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="33">
+      <c r="C21" s="33">
         <f>MROUND(CalculoPrecios!B17 * CalculoPrecios!$I$1 * CalculoPrecios!$J$1 * CalculoPrecios!$K$1, 1000)</f>
         <v>574000</v>
       </c>
-      <c r="D20" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="33" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="40"/>
-      <c r="B21" s="28" t="s">
+      <c r="D21" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="40"/>
+      <c r="B22" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-    </row>
-    <row r="22" spans="1:7" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="41"/>
-      <c r="B22" s="34" t="s">
+      <c r="C22" s="12"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+    </row>
+    <row r="23" spans="1:7" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="41"/>
+      <c r="B23" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="33">
+      <c r="C23" s="33">
         <f>MROUND(CalculoPrecios!B19 * CalculoPrecios!$I$1 * CalculoPrecios!$J$1 * CalculoPrecios!$K$1, 1000)</f>
         <v>448000</v>
       </c>
-      <c r="D22" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="33">
+      <c r="D23" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="33">
         <f>MROUND(CalculoPrecios!E19 * CalculoPrecios!$I$1 * CalculoPrecios!$J$1 * CalculoPrecios!$K$1, 1000)</f>
         <v>930000</v>
       </c>
-      <c r="G22" s="33">
+      <c r="G23" s="33">
         <f>MROUND(CalculoPrecios!F19 * CalculoPrecios!$I$1 * CalculoPrecios!$J$1 * CalculoPrecios!$K$1, 1000)</f>
         <v>1342000</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="41"/>
-      <c r="B23" s="30" t="s">
+    <row r="24" spans="1:7" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="41"/>
+      <c r="B24" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="33">
+      <c r="C24" s="33">
         <f>MROUND(CalculoPrecios!B20 * CalculoPrecios!$I$1 * CalculoPrecios!$J$1 * CalculoPrecios!$K$1, 1000)</f>
         <v>471000</v>
       </c>
-      <c r="D23" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="33" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="42"/>
-      <c r="B24" s="32" t="s">
+      <c r="D24" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="42"/>
+      <c r="B25" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="33">
+      <c r="C25" s="33">
         <f>MROUND(CalculoPrecios!B21 * CalculoPrecios!$I$1 * CalculoPrecios!$J$1 * CalculoPrecios!$K$1, 1000)</f>
         <v>335000</v>
       </c>
-      <c r="D24" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G24" s="33" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="40"/>
-      <c r="B25" s="28" t="s">
+      <c r="D25" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="40"/>
+      <c r="B26" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-    </row>
-    <row r="26" spans="1:7" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="41"/>
-      <c r="B26" s="34" t="s">
+      <c r="C26" s="12"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+    </row>
+    <row r="27" spans="1:7" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="41"/>
+      <c r="B27" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="33">
+      <c r="C27" s="33">
         <f>MROUND(CalculoPrecios!B23 * CalculoPrecios!$I$1 * CalculoPrecios!$J$1 * CalculoPrecios!$K$1, 1000)</f>
         <v>383000</v>
       </c>
-      <c r="D26" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26" s="33">
+      <c r="D27" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="33">
         <f>MROUND(CalculoPrecios!E23 * CalculoPrecios!$I$1 * CalculoPrecios!$J$1 * CalculoPrecios!$K$1, 1000)</f>
         <v>795000</v>
       </c>
-      <c r="G26" s="33">
+      <c r="G27" s="33">
         <f>MROUND(CalculoPrecios!F23 * CalculoPrecios!$I$1 * CalculoPrecios!$J$1 * CalculoPrecios!$K$1, 1000)</f>
         <v>1149000</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="41"/>
-      <c r="B27" s="31" t="s">
+    <row r="28" spans="1:7" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="41"/>
+      <c r="B28" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="33">
+      <c r="C28" s="33">
         <f>MROUND(CalculoPrecios!B24 * CalculoPrecios!$I$1 * CalculoPrecios!$J$1 * CalculoPrecios!$K$1, 1000)</f>
         <v>486000</v>
       </c>
-      <c r="D27" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" s="33">
+      <c r="D28" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="33">
         <f>MROUND(CalculoPrecios!E24 * CalculoPrecios!$I$1 * CalculoPrecios!$J$1 * CalculoPrecios!$K$1, 1000)</f>
         <v>1008000</v>
       </c>
-      <c r="G27" s="33">
+      <c r="G28" s="33">
         <f>MROUND(CalculoPrecios!F24 * CalculoPrecios!$I$1 * CalculoPrecios!$J$1 * CalculoPrecios!$K$1, 1000)</f>
         <v>1457000</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="42"/>
-      <c r="B28" s="32" t="s">
+    <row r="29" spans="1:7" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="42"/>
+      <c r="B29" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="33">
+      <c r="C29" s="33">
         <f>MROUND(CalculoPrecios!B25 * CalculoPrecios!$I$1 * CalculoPrecios!$J$1 * CalculoPrecios!$K$1, 1000)</f>
         <v>486000</v>
       </c>
-      <c r="D28" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F28" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G28" s="33" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="40"/>
-      <c r="B29" s="28" t="s">
+      <c r="D29" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29" s="33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="40"/>
+      <c r="B30" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-    </row>
-    <row r="30" spans="1:7" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="41"/>
-      <c r="B30" s="34" t="s">
+      <c r="C30" s="12"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+    </row>
+    <row r="31" spans="1:7" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="41"/>
+      <c r="B31" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="33">
+      <c r="C31" s="33">
         <f>MROUND(CalculoPrecios!B27 * CalculoPrecios!$I$1 * CalculoPrecios!$J$1 * CalculoPrecios!$K$1, 1000)</f>
         <v>526000</v>
       </c>
-      <c r="D30" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F30" s="33">
+      <c r="D31" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="33">
         <f>MROUND(CalculoPrecios!E27 * CalculoPrecios!$I$1 * CalculoPrecios!$J$1 * CalculoPrecios!$K$1, 1000)</f>
         <v>1091000</v>
       </c>
-      <c r="G30" s="33">
+      <c r="G31" s="33">
         <f>MROUND(CalculoPrecios!F27 * CalculoPrecios!$I$1 * CalculoPrecios!$J$1 * CalculoPrecios!$K$1, 1000)</f>
         <v>1577000</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="41"/>
-      <c r="B31" s="30" t="s">
+    <row r="32" spans="1:7" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="41"/>
+      <c r="B32" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="33">
+      <c r="C32" s="33">
         <f>MROUND(CalculoPrecios!B28 * CalculoPrecios!$I$1 * CalculoPrecios!$J$1 * CalculoPrecios!$K$1, 1000)</f>
         <v>400000</v>
       </c>
-      <c r="D31" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E31" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F31" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G31" s="33" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="41"/>
-      <c r="B32" s="31" t="s">
+      <c r="D32" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" s="33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="41"/>
+      <c r="B33" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="33">
+      <c r="C33" s="33">
         <f>MROUND(CalculoPrecios!B29 * CalculoPrecios!$I$1 * CalculoPrecios!$J$1 * CalculoPrecios!$K$1, 1000)</f>
         <v>362000</v>
       </c>
-      <c r="D32" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F32" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G32" s="33" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="41"/>
-      <c r="B33" s="30" t="s">
+      <c r="D33" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33" s="33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="41"/>
+      <c r="B34" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="33">
-        <f>MROUND(CalculoPrecios!B30 * CalculoPrecios!$I$1 * CalculoPrecios!$J$1 * CalculoPrecios!$K$1 + 20000, 1000)</f>
-        <v>305000</v>
-      </c>
-      <c r="D33" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E33" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F33" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G33" s="33" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="42"/>
-      <c r="B34" s="32" t="s">
+      <c r="C34" s="33">
+        <f>MROUND(CalculoPrecios!B30 * CalculoPrecios!$I$1 * CalculoPrecios!$J$1 * CalculoPrecios!$K$1 + 40000, 1000)</f>
+        <v>325000</v>
+      </c>
+      <c r="D34" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34" s="33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="42"/>
+      <c r="B35" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="33">
-        <f>MROUND(CalculoPrecios!B31 * CalculoPrecios!$I$1 * CalculoPrecios!$J$1 * CalculoPrecios!$K$1, 1000)</f>
-        <v>255000</v>
-      </c>
-      <c r="D34" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F34" s="33">
+      <c r="C35" s="33">
+        <f>MROUND(CalculoPrecios!B31 * CalculoPrecios!$I$1 * CalculoPrecios!$J$1 * CalculoPrecios!$K$1 +35000, 1000)</f>
+        <v>290000</v>
+      </c>
+      <c r="D35" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" s="33">
         <f>MROUND(CalculoPrecios!E31 * CalculoPrecios!$I$1 * CalculoPrecios!$J$1 * CalculoPrecios!$K$1, 1000)</f>
         <v>524000</v>
       </c>
-      <c r="G34" s="33">
+      <c r="G35" s="33">
         <f>MROUND(CalculoPrecios!F31 * CalculoPrecios!$I$1 * CalculoPrecios!$J$1 * CalculoPrecios!$K$1, 1000)</f>
         <v>827000</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="40"/>
-      <c r="B35" s="29" t="s">
+    <row r="36" spans="1:7" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="40"/>
+      <c r="B36" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-    </row>
-    <row r="36" spans="1:7" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="41"/>
-      <c r="B36" s="36" t="s">
+      <c r="C36" s="12"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+    </row>
+    <row r="37" spans="1:7" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="41"/>
+      <c r="B37" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="37">
+      <c r="C37" s="37">
         <f>MROUND(CalculoPrecios!B33 * CalculoPrecios!$I$1 * CalculoPrecios!$J$1 * CalculoPrecios!$K$1, 1000)</f>
         <v>291000</v>
       </c>
-      <c r="D36" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="F36" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G36" s="38" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="41"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D37" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F37" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G37" s="38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A38" s="41"/>
     </row>
-    <row r="39" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="42"/>
-    </row>
-    <row r="40" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="41"/>
+    </row>
+    <row r="40" spans="1:7" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="42"/>
+    </row>
+    <row r="41" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="A36:A40"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A35"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A9:A15"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" scale="106" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2078,7 +2102,7 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
